--- a/results/I3_N5_M2_T30_C150_DepCentral_s4_res_fix.xlsx
+++ b/results/I3_N5_M2_T30_C150_DepCentral_s4_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>869.741542443158</v>
+        <v>297.3343409182375</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01399993896484375</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26.81043233119282</v>
+        <v>29.33434091823749</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.12083229832975</v>
+        <v>3.175153539594582</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.281942410296509</v>
+        <v>3.175153539594582</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>795.5099999999983</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.26</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>23.71927412272879</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>21.61595173195241</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>23.15868643584639</v>
       </c>
     </row>
     <row r="6">
@@ -939,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>22.46902814888773</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -947,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.6146379281073</v>
+        <v>26.53529969079453</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.38078477376724</v>
+        <v>26.33383997544098</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1015,10 +1015,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1029,10 +1029,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1043,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1057,71 +1057,15 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>6</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>6</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5</v>
-      </c>
-      <c r="D10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1224,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>160.09</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8">
@@ -1235,7 +1179,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>158.735</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9">
@@ -1246,7 +1190,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>156.815</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10">
@@ -1257,7 +1201,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>154.15</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11">
@@ -1268,7 +1212,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>145.1</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12">
@@ -1279,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>142.985</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -1290,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>153.285</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14">
@@ -1301,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>157.295</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15">
@@ -1312,7 +1256,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>166.685</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16">
@@ -1323,7 +1267,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>159.335</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17">
@@ -1334,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>52.09500000000072</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18">
@@ -1345,7 +1289,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>53.22500000000073</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19">
@@ -1356,7 +1300,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>52.15</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20">
@@ -1367,7 +1311,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>49.64500000000073</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21">
@@ -1378,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>48.49500000000073</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22">
@@ -1389,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>62.475</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23">
@@ -1400,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>70.315</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
@@ -1411,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>62.66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25">
@@ -1422,7 +1366,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>73.21000000000001</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26">
@@ -1433,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>74.065</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27">
@@ -1444,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>222.5749999999997</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1455,7 +1399,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>226.5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
@@ -1466,7 +1410,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>227.3199999999997</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30">
@@ -1477,7 +1421,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>223.2099999999997</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31">
@@ -1488,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>211.55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1499,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>222.5749999999997</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33">
@@ -1510,7 +1454,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>226.5</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34">
@@ -1521,7 +1465,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>227.3199999999997</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35">
@@ -1532,7 +1476,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>223.2099999999997</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36">
@@ -1543,7 +1487,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>211.55</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37">
@@ -1554,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>142.985</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38">
@@ -1565,7 +1509,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>153.285</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39">
@@ -1576,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>157.295</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40">
@@ -1587,7 +1531,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>166.685</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41">
@@ -1598,7 +1542,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>159.335</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1645,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>72.5749999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1656,7 +1600,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>76.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1667,7 +1611,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>77.31999999999971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1678,7 +1622,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>73.20999999999972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1689,7 +1633,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>61.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1700,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -1711,7 +1655,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>3.285</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1722,7 +1666,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>7.295</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -1733,7 +1677,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>16.685</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -1744,7 +1688,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>9.335000000000001</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1846,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1857,7 +1801,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1868,7 +1812,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1879,7 +1823,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1890,7 +1834,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1901,7 +1845,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1912,7 +1856,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1923,7 +1867,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>4.855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1934,7 +1878,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4.215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1945,7 +1889,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>7.485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2011,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2022,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2033,7 +1977,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2044,7 +1988,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2055,7 +1999,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2069,7 +2013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2096,7 +2040,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2107,7 +2051,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2118,7 +2062,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2129,7 +2073,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2140,100 +2084,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>4</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>5</v>
-      </c>
-      <c r="B14" t="n">
-        <v>5</v>
-      </c>
-      <c r="C14" t="n">
         <v>1</v>
       </c>
     </row>
